--- a/data/df_videos_2021_cleaned.xlsx
+++ b/data/df_videos_2021_cleaned.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzobehna/projects/Social-Computing_Final-Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08831565-888C-BD41-AD6B-D61C47C311F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345CBA36-381D-0E48-A87C-C8EC78A5E8C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{F49F7BFC-9310-4561-B399-0EB798D3E0F1}"/>
+    <workbookView xWindow="14680" yWindow="760" windowWidth="15100" windowHeight="18880" xr2:uid="{F49F7BFC-9310-4561-B399-0EB798D3E0F1}"/>
   </bookViews>
   <sheets>
     <sheet name="df_videos_2021" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">df_videos_2021!$A$1:$J$10</definedName>
+    <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">df_videos_2021!$A$1:$J$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>video_id</t>
   </si>
@@ -462,6 +462,38 @@
   <si>
     <t>comments more related to visuals</t>
   </si>
+  <si>
+    <t>5q87K1WaoFI</t>
+  </si>
+  <si>
+    <t>Computer Scientist Explains Machine Learning in 5 Levels of Difficulty | WIRED</t>
+  </si>
+  <si>
+    <t>WIRED</t>
+  </si>
+  <si>
+    <t>UCftwRNsjfRo08xYE31tkiyw</t>
+  </si>
+  <si>
+    <t>2021-08-18T16:00:08Z</t>
+  </si>
+  <si>
+    <t>WIRED has challenged computer scientist and Hidden Door cofounder and CEO Hilary Mason to explain machine learning to 5 different people; a child, teen, a college student, a grad student and an expert.
+Still haven‚Äôt subscribed to WIRED on YouTube? ‚ñ∫‚ñ∫ http://wrd.cm/15fP7B7 _x000D_
+Listen to the Get WIRED podcast  ‚ñ∫‚ñ∫ https://link.chtbl.com/wired-ytc-desc_x000D_
+Want more WIRED? Get the magazine ‚ñ∫‚ñ∫ https://subscribe.wired.com/subscribe/splits/wired/WIR_YouTube?source=EDT_WIR_YouTube_0_Video_Description_ZZ_x000D_
+_x000D_
+Get more incredible stories on science and tech with our daily newsletter: https://wrd.cm/DailyYT_x000D_
+_x000D_
+Also, check out the free WIRED channel on Roku, Apple TV, Amazon Fire TV, and Android TV. Here you can find your favorite WIRED shows and new episodes of our latest hit series Tradecraft._x000D_
+_x000D_
+ABOUT WIRED_x000D_
+WIRED is where tomorrow is realized. Through thought-provoking stories and videos, WIRED explores the future of business, innovation, and culture.
+Computer Scientist Explains Machine Learning in 5 Levels of Difficulty | WIRED</t>
+  </si>
+  <si>
+    <t>['5 levels', '5 levels machine learning', '5 levels of machine learning', 'computer science', 'computer scientist', 'explanation machine learning', 'hidden door', 'innovation', 'machine learned', 'machine learning computer scientist', 'machine learning explained', 'machine learning explanation', 'machine learning hidden door', 'machine learning wired', 'machine learning youtube', 'ott 5 levels', 'science &amp; tech', 'science &amp; technology', 'wired', 'wired 5 levels', 'wired computer science', 'wired machine learning']</t>
+  </si>
 </sst>
 </file>
 
@@ -502,11 +534,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,8 +600,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4F98F141-3692-4D16-945E-CD8DFCE722B0}" name="df_videos_2021" displayName="df_videos_2021" ref="A1:K10" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:K10" xr:uid="{4F98F141-3692-4D16-945E-CD8DFCE722B0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4F98F141-3692-4D16-945E-CD8DFCE722B0}" name="df_videos_2021" displayName="df_videos_2021" ref="A1:K11" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:K11" xr:uid="{4F98F141-3692-4D16-945E-CD8DFCE722B0}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{005DA329-7D7D-4AD1-92A1-E464377DF4BB}" uniqueName="1" name="video_id" queryTableFieldId="1" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{87C0455B-0430-4FD0-BAEB-9A94539AB557}" uniqueName="2" name="video_title" queryTableFieldId="2" dataDxfId="5"/>
@@ -903,10 +936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3348C916-9FDD-4743-99E3-819D100737FB}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -987,262 +1020,294 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1">
-        <v>44548.666701388887</v>
-      </c>
-      <c r="F3">
-        <v>2592146</v>
-      </c>
-      <c r="G3">
-        <v>6970</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3">
-        <v>27</v>
+    <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2314382</v>
+      </c>
+      <c r="G3" s="4">
+        <v>2170</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="4">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1">
-        <v>44227.750127314815</v>
+        <v>44548.666701388887</v>
       </c>
       <c r="F4">
-        <v>1875122</v>
+        <v>2592146</v>
       </c>
       <c r="G4">
-        <v>2705</v>
+        <v>6970</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4">
         <v>27</v>
-      </c>
-      <c r="J4">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1">
-        <v>44216.500011574077</v>
+        <v>44227.750127314815</v>
       </c>
       <c r="F5">
-        <v>1132089</v>
+        <v>1875122</v>
       </c>
       <c r="G5">
-        <v>1380</v>
+        <v>2705</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J5">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="3">
-        <v>44266.709444444445</v>
-      </c>
-      <c r="F6" s="2">
-        <v>652159</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1235</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="2">
-        <v>27</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>66</v>
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1">
+        <v>44216.500011574077</v>
+      </c>
+      <c r="F6">
+        <v>1132089</v>
+      </c>
+      <c r="G6">
+        <v>1380</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="1">
-        <v>44487.583495370367</v>
-      </c>
-      <c r="F7">
-        <v>233330</v>
-      </c>
-      <c r="G7">
-        <v>1042</v>
-      </c>
-      <c r="H7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7">
-        <v>29</v>
+      <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="3">
+        <v>44266.709444444445</v>
+      </c>
+      <c r="F7" s="2">
+        <v>652159</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1235</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="2">
+        <v>27</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E8" s="1">
-        <v>44464.875011574077</v>
+        <v>44487.583495370367</v>
       </c>
       <c r="F8">
-        <v>191524</v>
+        <v>233330</v>
       </c>
       <c r="G8">
-        <v>584</v>
+        <v>1042</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J8">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E9" s="1">
-        <v>44503.58258101852</v>
+        <v>44464.875011574077</v>
       </c>
       <c r="F9">
-        <v>132500</v>
+        <v>191524</v>
       </c>
       <c r="G9">
-        <v>786</v>
+        <v>584</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="J9">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="1">
+        <v>44503.58258101852</v>
+      </c>
+      <c r="F10">
+        <v>132500</v>
+      </c>
+      <c r="G10">
+        <v>786</v>
+      </c>
+      <c r="H10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>58</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>59</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>60</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E11" s="1">
         <v>44373.583553240744</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>117855</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>1078</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H11" t="s">
         <v>62</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I11" t="s">
         <v>63</v>
       </c>
-      <c r="J10">
+      <c r="J11">
         <v>28</v>
       </c>
     </row>
